--- a/biology/Zoologie/Doraemon__Nobita_no_kyōryū/Doraemon__Nobita_no_kyōryū.xlsx
+++ b/biology/Zoologie/Doraemon__Nobita_no_kyōryū/Doraemon__Nobita_no_kyōryū.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_no_ky%C5%8Dry%C5%AB</t>
+          <t>Doraemon:_Nobita_no_kyōryū</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doraemon: Nobita no kyōryū (ドラえもん のび太の恐竜?, littéralement « Doraemon : Le Dinosaure de Nobita ») est un film d'animation japonais réalisé par Hiroshi Fukutomi, sorti en 1980. Le film est le premier d'une longue série mettant en scène le personnage de Doraemon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_no_ky%C5%8Dry%C5%AB</t>
+          <t>Doraemon:_Nobita_no_kyōryū</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suneo montre un fossile de dinosaure à tout le monde sauf à Nobita. En colère, celui-ci affirme qu'il va trouver un dinosaure vivant !
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_no_ky%C5%8Dry%C5%AB</t>
+          <t>Doraemon:_Nobita_no_kyōryū</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Doraemon: Nobita no kyōryū
 Titre original : ドラえもん のび太の恐竜
@@ -560,7 +576,7 @@
 Genre : animation, aventure et science-fiction
 Durée : 93 minutes
 Dates de sortie :
-Japon : 15 mars 1980[1]
+Japon : 15 mars 1980
 France : 1980[réf. nécessaire]</t>
         </is>
       </c>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_no_ky%C5%8Dry%C5%AB</t>
+          <t>Doraemon:_Nobita_no_kyōryū</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Doublage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nobuyo Ōyama : Doraemon
 Noriko Ohara : Nobita Nobi
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_no_ky%C5%8Dry%C5%AB</t>
+          <t>Doraemon:_Nobita_no_kyōryū</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,9 +641,11 @@
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a rapporté 25 millions de dollars au box-office $25 million[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a rapporté 25 millions de dollars au box-office $25 million.
 </t>
         </is>
       </c>
